--- a/data_handler/config_calc_amount(India) - day calculations/1-statistic_config-phen days.xlsx
+++ b/data_handler/config_calc_amount(India) - day calculations/1-statistic_config-phen days.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20370"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC419028-5F67-4247-BE78-F351357F18EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020A2666-FADA-4B7D-BEDD-9F1A516C5E71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="759" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.Mapping(Input)" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="223">
   <si>
     <t>时间字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,10 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>故障类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>透视字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -409,10 +405,6 @@
   </si>
   <si>
     <t>第5天</t>
-  </si>
-  <si>
-    <t>故障现象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>故障现象</t>
@@ -866,6 +858,37 @@
   </si>
   <si>
     <t>国家/地区:渠道:机型:软件版本:故障类别:故障现象:发帖时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Osversion</t>
+  </si>
+  <si>
+    <t>Region</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fault_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fault_phen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1078,7 +1101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1178,9 +1201,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1554,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1567,11 +1587,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="16" t="s">
         <v>22</v>
       </c>
@@ -1612,10 +1632,10 @@
         <v>38</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1626,7 +1646,7 @@
         <v>38</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>28</v>
@@ -1758,7 +1778,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1778,13 +1798,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>5</v>
@@ -1805,19 +1825,19 @@
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1870,10 +1890,10 @@
       </c>
       <c r="C2" s="36">
         <f ca="1">TODAY()</f>
-        <v>44208</v>
+        <v>44221</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -1908,7 +1928,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>26</v>
@@ -1919,13 +1939,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1933,13 +1953,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -1947,13 +1967,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -1961,13 +1981,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -1975,13 +1995,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -1989,13 +2009,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -2003,13 +2023,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -2017,13 +2037,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2056,16 +2076,16 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -2082,20 +2102,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
@@ -2103,20 +2123,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="34" t="s">
         <v>65</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
@@ -2124,20 +2144,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
@@ -2145,20 +2165,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="34" t="s">
         <v>87</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
@@ -2166,20 +2186,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
@@ -2187,20 +2207,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
@@ -2208,20 +2228,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2229,20 +2249,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2250,20 +2270,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2271,20 +2291,20 @@
         <v>10</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="35" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2292,20 +2312,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="35" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2313,20 +2333,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2334,20 +2354,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2368,7 +2388,7 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="86.75" style="44" customWidth="1"/>
+    <col min="2" max="2" width="86.75" style="43" customWidth="1"/>
     <col min="3" max="3" width="24.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="50.25" style="23" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
@@ -2376,16 +2396,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="D1" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2393,13 +2413,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -2407,16 +2427,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -2424,13 +2444,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -2438,13 +2458,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2452,13 +2472,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2466,13 +2486,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2480,13 +2500,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2494,13 +2514,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2508,13 +2528,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -2522,13 +2542,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -2536,13 +2556,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>142</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -2550,13 +2570,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>193</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -2564,13 +2584,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -2578,13 +2598,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>198</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -2592,13 +2612,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>145</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -2606,16 +2626,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -2623,16 +2643,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -2640,13 +2660,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -2654,13 +2674,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -2668,13 +2688,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -2682,13 +2702,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -2696,13 +2716,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2710,13 +2730,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2724,13 +2744,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2738,13 +2758,13 @@
         <v>23</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2752,13 +2772,13 @@
         <v>24</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -2766,13 +2786,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -2780,13 +2800,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -2794,13 +2814,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -2808,22 +2828,22 @@
         <v>29</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="12"/>
       <c r="B32" s="30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D32" s="5"/>
     </row>
@@ -2843,8 +2863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2876,134 +2896,134 @@
         <v>15</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>191</v>
+        <v>188</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>189</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="7"/>
       <c r="G3" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="8"/>
       <c r="F4" s="10"/>
       <c r="G4" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="41" t="s">
+      <c r="A5" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10"/>
       <c r="G5" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="41" t="s">
+      <c r="B6" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="40" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="8"/>
       <c r="F6" s="10"/>
       <c r="G6" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="40" t="s">
         <v>98</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>100</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="19"/>
       <c r="F7" s="10"/>
       <c r="G7" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C8" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="40" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>16</v>
@@ -3012,7 +3032,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
